--- a/target/test-classes/Testdata/Testdata.xlsx
+++ b/target/test-classes/Testdata/Testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjeev\Desktop\Open Cart Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjeev\Desktop\Open Cart Automation\Opencart\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744620D0-091E-4840-AA53-BBE438F7C3BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A27DF1-7E76-4EA7-9430-B2E76E6C25CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{11796C7D-C2C5-4FFA-8D84-628A29F29C7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Testcase Scenario</t>
   </si>
@@ -37,13 +37,28 @@
   </si>
   <si>
     <t>Verify that user can add to cart one or more products</t>
-  </si>
-  <si>
-    <t>Verify that user can add products to wishlist</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that the limit to the number of products a user can by is working correctly by displaying error message and preventing user from buying more than the limit
 </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Nikon D300</t>
+  </si>
+  <si>
+    <t>Verify that user can add products to cart using navigation</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -87,12 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,44 +423,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3547E62E-22B6-4FBA-B81E-8F972C62C4C9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
